--- a/112-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW 5/assignment5_grade.xlsx
+++ b/112-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW 5/assignment5_grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\INTRODUCTION TO MATLAB PROGRAMMING\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\INTRODUCTION TO MATLAB PROGRAMMING\Homework\HW 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F49E9-12B8-4238-8F5A-AE203180D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1711CAF-9805-4EE1-B800-5D4399E42811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -433,15 +433,6 @@
   </si>
   <si>
     <t>Question 7</t>
-  </si>
-  <si>
-    <t>Question 8</t>
-  </si>
-  <si>
-    <t>Question 9</t>
-  </si>
-  <si>
-    <t>Question 10</t>
   </si>
 </sst>
 </file>
@@ -572,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,20 +639,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,18 +930,18 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="10" width="11.77734375" style="15" customWidth="1"/>
-    <col min="11" max="14" width="11.77734375" customWidth="1"/>
-    <col min="15" max="22" width="6.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" customWidth="1"/>
+    <col min="5" max="10" width="11.796875" style="15" customWidth="1"/>
+    <col min="11" max="14" width="11.796875" customWidth="1"/>
+    <col min="15" max="22" width="6.1328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="16.05" customHeight="1">
@@ -990,21 +975,14 @@
       <c r="J1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>47</v>
       </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
@@ -1024,30 +1002,26 @@
         <v>10</v>
       </c>
       <c r="G2" s="18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H2" s="18">
         <v>10</v>
       </c>
       <c r="I2" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J2" s="17">
         <v>10</v>
       </c>
       <c r="K2" s="17">
-        <v>10</v>
-      </c>
-      <c r="L2" s="17">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L2" s="29"/>
       <c r="M2" s="17">
-        <v>10</v>
-      </c>
-      <c r="N2" s="17">
-        <v>10</v>
-      </c>
-      <c r="O2" s="29"/>
+        <f>SUM(E2:K2)</f>
+        <v>100</v>
+      </c>
+      <c r="N2" s="17"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
       <c r="S2" s="10"/>
@@ -1065,43 +1039,36 @@
       <c r="C3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27">
-        <v>0</v>
-      </c>
-      <c r="L3" s="27">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27">
-        <v>0</v>
-      </c>
-      <c r="N3" s="27">
-        <v>0</v>
-      </c>
-      <c r="O3" s="17">
-        <f>SUMPRODUCT($E$2:$N$2, E3:N3)</f>
-        <v>0</v>
-      </c>
+      <c r="E3" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <f>SUMPRODUCT($E$2:$K$2, E3:K3)</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
@@ -1119,43 +1086,36 @@
       <c r="C4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0</v>
-      </c>
-      <c r="J4" s="27">
-        <v>0</v>
-      </c>
-      <c r="K4" s="27">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27">
-        <v>0</v>
-      </c>
-      <c r="M4" s="27">
-        <v>0</v>
-      </c>
-      <c r="N4" s="27">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <f t="shared" ref="O4:O23" si="0">SUMPRODUCT($E$2:$N$2, E4:N4)</f>
-        <v>0</v>
-      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" ref="L4:L23" si="0">SUMPRODUCT($E$2:$K$2, E4:K4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
@@ -1173,43 +1133,36 @@
       <c r="C5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0</v>
-      </c>
-      <c r="J5" s="27">
-        <v>0</v>
-      </c>
-      <c r="K5" s="27">
-        <v>0</v>
-      </c>
-      <c r="L5" s="27">
-        <v>0</v>
-      </c>
-      <c r="M5" s="27">
-        <v>0</v>
-      </c>
-      <c r="N5" s="27">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17">
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
       <c r="S5" s="10"/>
@@ -1227,43 +1180,36 @@
       <c r="C6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0</v>
-      </c>
-      <c r="K6" s="27">
-        <v>0</v>
-      </c>
-      <c r="L6" s="27">
-        <v>0</v>
-      </c>
-      <c r="M6" s="27">
-        <v>0</v>
-      </c>
-      <c r="N6" s="27">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>
       <c r="S6" s="7"/>
@@ -1281,43 +1227,36 @@
       <c r="C7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27">
-        <v>0</v>
-      </c>
-      <c r="N7" s="27">
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
@@ -1335,43 +1274,36 @@
       <c r="C8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27">
-        <v>0</v>
-      </c>
-      <c r="L8" s="27">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
-        <v>0</v>
-      </c>
-      <c r="N8" s="27">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="10"/>
@@ -1389,43 +1321,36 @@
       <c r="C9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27">
-        <v>0</v>
-      </c>
-      <c r="J9" s="27">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27">
-        <v>0</v>
-      </c>
-      <c r="L9" s="27">
-        <v>0</v>
-      </c>
-      <c r="M9" s="27">
-        <v>0</v>
-      </c>
-      <c r="N9" s="27">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="9"/>
       <c r="S9" s="10"/>
@@ -1446,40 +1371,33 @@
       <c r="D10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17">
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="9"/>
       <c r="S10" s="10"/>
@@ -1500,40 +1418,33 @@
       <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>0</v>
-      </c>
-      <c r="G11" s="27">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0</v>
-      </c>
-      <c r="I11" s="27">
-        <v>0</v>
-      </c>
-      <c r="J11" s="27">
-        <v>0</v>
-      </c>
-      <c r="K11" s="27">
-        <v>0</v>
-      </c>
-      <c r="L11" s="27">
-        <v>0</v>
-      </c>
-      <c r="M11" s="27">
-        <v>0</v>
-      </c>
-      <c r="N11" s="27">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="10"/>
@@ -1554,40 +1465,33 @@
       <c r="D12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
-        <v>0</v>
-      </c>
-      <c r="G12" s="27">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0</v>
-      </c>
-      <c r="I12" s="27">
-        <v>0</v>
-      </c>
-      <c r="J12" s="27">
-        <v>0</v>
-      </c>
-      <c r="K12" s="27">
-        <v>0</v>
-      </c>
-      <c r="L12" s="27">
-        <v>0</v>
-      </c>
-      <c r="M12" s="27">
-        <v>0</v>
-      </c>
-      <c r="N12" s="27">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
       <c r="S12" s="10"/>
@@ -1608,40 +1512,33 @@
       <c r="D13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="27">
-        <v>0</v>
-      </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27">
-        <v>0</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0</v>
-      </c>
-      <c r="I13" s="27">
-        <v>0</v>
-      </c>
-      <c r="J13" s="27">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27">
-        <v>0</v>
-      </c>
-      <c r="L13" s="27">
-        <v>0</v>
-      </c>
-      <c r="M13" s="27">
-        <v>0</v>
-      </c>
-      <c r="N13" s="27">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17">
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="9"/>
       <c r="S13" s="10"/>
@@ -1662,40 +1559,33 @@
       <c r="D14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="27">
-        <v>0</v>
-      </c>
-      <c r="F14" s="27">
-        <v>0</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="27">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27">
-        <v>0</v>
-      </c>
-      <c r="L14" s="27">
-        <v>0</v>
-      </c>
-      <c r="M14" s="27">
-        <v>0</v>
-      </c>
-      <c r="N14" s="27">
-        <v>0</v>
-      </c>
-      <c r="O14" s="17">
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="10"/>
@@ -1716,40 +1606,33 @@
       <c r="D15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="F15" s="27">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0</v>
-      </c>
-      <c r="I15" s="27">
-        <v>0</v>
-      </c>
-      <c r="J15" s="27">
-        <v>0</v>
-      </c>
-      <c r="K15" s="27">
-        <v>0</v>
-      </c>
-      <c r="L15" s="27">
-        <v>0</v>
-      </c>
-      <c r="M15" s="27">
-        <v>0</v>
-      </c>
-      <c r="N15" s="27">
-        <v>0</v>
-      </c>
-      <c r="O15" s="17">
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
@@ -1770,40 +1653,33 @@
       <c r="D16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="27">
-        <v>0</v>
-      </c>
-      <c r="F16" s="27">
-        <v>0</v>
-      </c>
-      <c r="G16" s="27">
-        <v>0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27">
-        <v>0</v>
-      </c>
-      <c r="J16" s="27">
-        <v>0</v>
-      </c>
-      <c r="K16" s="27">
-        <v>0</v>
-      </c>
-      <c r="L16" s="27">
-        <v>0</v>
-      </c>
-      <c r="M16" s="27">
-        <v>0</v>
-      </c>
-      <c r="N16" s="27">
-        <v>0</v>
-      </c>
-      <c r="O16" s="17">
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
@@ -1824,40 +1700,33 @@
       <c r="D17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="27">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
-        <v>0</v>
-      </c>
-      <c r="I17" s="27">
-        <v>0</v>
-      </c>
-      <c r="J17" s="27">
-        <v>0</v>
-      </c>
-      <c r="K17" s="27">
-        <v>0</v>
-      </c>
-      <c r="L17" s="27">
-        <v>0</v>
-      </c>
-      <c r="M17" s="27">
-        <v>0</v>
-      </c>
-      <c r="N17" s="27">
-        <v>0</v>
-      </c>
-      <c r="O17" s="17">
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="9"/>
       <c r="S17" s="10"/>
@@ -1878,40 +1747,33 @@
       <c r="D18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
-        <v>0</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0</v>
-      </c>
-      <c r="I18" s="27">
-        <v>0</v>
-      </c>
-      <c r="J18" s="27">
-        <v>0</v>
-      </c>
-      <c r="K18" s="27">
-        <v>0</v>
-      </c>
-      <c r="L18" s="27">
-        <v>0</v>
-      </c>
-      <c r="M18" s="27">
-        <v>0</v>
-      </c>
-      <c r="N18" s="27">
-        <v>0</v>
-      </c>
-      <c r="O18" s="17">
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="9"/>
       <c r="S18" s="10"/>
@@ -1932,40 +1794,33 @@
       <c r="D19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27">
-        <v>0</v>
-      </c>
-      <c r="I19" s="27">
-        <v>0</v>
-      </c>
-      <c r="J19" s="27">
-        <v>0</v>
-      </c>
-      <c r="K19" s="27">
-        <v>0</v>
-      </c>
-      <c r="L19" s="27">
-        <v>0</v>
-      </c>
-      <c r="M19" s="27">
-        <v>0</v>
-      </c>
-      <c r="N19" s="27">
-        <v>0</v>
-      </c>
-      <c r="O19" s="17">
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="9"/>
       <c r="S19" s="10"/>
@@ -1986,40 +1841,33 @@
       <c r="D20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <v>0</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27">
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <v>0</v>
-      </c>
-      <c r="J20" s="27">
-        <v>0</v>
-      </c>
-      <c r="K20" s="27">
-        <v>0</v>
-      </c>
-      <c r="L20" s="27">
-        <v>0</v>
-      </c>
-      <c r="M20" s="27">
-        <v>0</v>
-      </c>
-      <c r="N20" s="27">
-        <v>0</v>
-      </c>
-      <c r="O20" s="17">
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="10"/>
@@ -2040,40 +1888,33 @@
       <c r="D21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27">
-        <v>0</v>
-      </c>
-      <c r="I21" s="27">
-        <v>0</v>
-      </c>
-      <c r="J21" s="27">
-        <v>0</v>
-      </c>
-      <c r="K21" s="27">
-        <v>0</v>
-      </c>
-      <c r="L21" s="27">
-        <v>0</v>
-      </c>
-      <c r="M21" s="27">
-        <v>0</v>
-      </c>
-      <c r="N21" s="27">
-        <v>0</v>
-      </c>
-      <c r="O21" s="17">
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="10"/>
@@ -2094,40 +1935,33 @@
       <c r="D22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27">
-        <v>0</v>
-      </c>
-      <c r="I22" s="27">
-        <v>0</v>
-      </c>
-      <c r="J22" s="27">
-        <v>0</v>
-      </c>
-      <c r="K22" s="27">
-        <v>0</v>
-      </c>
-      <c r="L22" s="27">
-        <v>0</v>
-      </c>
-      <c r="M22" s="27">
-        <v>0</v>
-      </c>
-      <c r="N22" s="27">
-        <v>0</v>
-      </c>
-      <c r="O22" s="17">
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="10"/>
@@ -2148,40 +1982,33 @@
       <c r="D23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
-        <v>0</v>
-      </c>
-      <c r="I23" s="27">
-        <v>0</v>
-      </c>
-      <c r="J23" s="27">
-        <v>0</v>
-      </c>
-      <c r="K23" s="27">
-        <v>0</v>
-      </c>
-      <c r="L23" s="27">
-        <v>0</v>
-      </c>
-      <c r="M23" s="27">
-        <v>0</v>
-      </c>
-      <c r="N23" s="27">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17">
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="10"/>
@@ -2198,7 +2025,7 @@
       </c>
       <c r="E24" s="26">
         <f>AVERAGE(E3:E23)*E2</f>
-        <v>0</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="F24" s="26">
         <f t="shared" ref="F24:J24" si="1">AVERAGE(F3:F23)*F2</f>
@@ -2225,21 +2052,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="26">
-        <f t="shared" ref="L24" si="3">AVERAGE(L3:L23)*L2</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
-        <f t="shared" ref="M24" si="4">AVERAGE(M3:M23)*M2</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="26">
-        <f t="shared" ref="N24" si="5">AVERAGE(N3:N23)*N2</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="26">
-        <f>AVERAGE(O3:O23)</f>
-        <v>0</v>
-      </c>
+        <f>AVERAGE(L3:L23)</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="9"/>
       <c r="S24" s="10"/>
@@ -2308,7 +2125,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2323,23 +2140,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100B542E048DCEC914CB381455F65170921" ma:contentTypeVersion="17" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="a9fe78b0e763ba360e927b7ffbaa4d7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3317c420-d316-4435-8241-33b98cfe393f" xmlns:ns4="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f3198fc71856a272a1be625b81b45a" ns3:_="" ns4:_="">
     <xsd:import namespace="3317c420-d316-4435-8241-33b98cfe393f"/>
@@ -2586,8 +2386,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2599,7 +2416,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/112-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW 5/assignment5_grade.xlsx
+++ b/112-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW 5/assignment5_grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\INTRODUCTION TO MATLAB PROGRAMMING\Homework\HW 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1711CAF-9805-4EE1-B800-5D4399E42811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA445B0-92B2-416A-A63B-3ADA7A36598F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grade" sheetId="8" r:id="rId1"/>
@@ -563,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -612,35 +612,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -926,63 +935,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" customWidth="1"/>
-    <col min="5" max="10" width="11.796875" style="15" customWidth="1"/>
-    <col min="11" max="14" width="11.796875" customWidth="1"/>
-    <col min="15" max="22" width="6.1328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="10" width="11.77734375" style="15" customWidth="1"/>
+    <col min="11" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="22" width="6.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
@@ -991,20 +1000,20 @@
       <c r="V1" s="12"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="18">
-        <v>10</v>
-      </c>
-      <c r="F2" s="18">
-        <v>10</v>
-      </c>
-      <c r="G2" s="18">
-        <v>20</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="27">
+        <v>10</v>
+      </c>
+      <c r="F2" s="27">
+        <v>10</v>
+      </c>
+      <c r="G2" s="27">
+        <v>20</v>
+      </c>
+      <c r="H2" s="27">
         <v>10</v>
       </c>
       <c r="I2" s="17">
@@ -1016,12 +1025,9 @@
       <c r="K2" s="17">
         <v>20</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="17">
-        <f>SUM(E2:K2)</f>
-        <v>100</v>
-      </c>
-      <c r="N2" s="17"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
       <c r="S2" s="10"/>
@@ -1030,45 +1036,45 @@
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="E3" s="27">
         <v>0</v>
       </c>
-      <c r="G3" s="18">
+      <c r="F3" s="27">
         <v>0</v>
       </c>
-      <c r="H3" s="18">
+      <c r="G3" s="27">
         <v>0</v>
       </c>
-      <c r="I3" s="18">
+      <c r="H3" s="27">
         <v>0</v>
       </c>
-      <c r="J3" s="18">
+      <c r="I3" s="17">
         <v>0</v>
       </c>
-      <c r="K3" s="18">
+      <c r="J3" s="17">
         <v>0</v>
       </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
       <c r="L3" s="17">
-        <f>SUMPRODUCT($E$2:$K$2, E3:K3)</f>
-        <v>5</v>
-      </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+        <f>SUM(E3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
       <c r="S3" s="10"/>
@@ -1077,45 +1083,45 @@
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18">
-        <v>0</v>
+      <c r="E4" s="27">
+        <v>10</v>
+      </c>
+      <c r="F4" s="27">
+        <v>10</v>
+      </c>
+      <c r="G4" s="27">
+        <v>20</v>
+      </c>
+      <c r="H4" s="27">
+        <v>5</v>
+      </c>
+      <c r="I4" s="17">
+        <v>20</v>
+      </c>
+      <c r="J4" s="17">
+        <v>10</v>
+      </c>
+      <c r="K4" s="17">
+        <v>20</v>
       </c>
       <c r="L4" s="17">
-        <f t="shared" ref="L4:L23" si="0">SUMPRODUCT($E$2:$K$2, E4:K4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+        <f t="shared" ref="L4:L23" si="0">SUM(E4:K4)</f>
+        <v>95</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
@@ -1124,45 +1130,45 @@
       <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0</v>
+      <c r="E5" s="27">
+        <v>5</v>
+      </c>
+      <c r="F5" s="27">
+        <v>10</v>
+      </c>
+      <c r="G5" s="27">
+        <v>20</v>
+      </c>
+      <c r="H5" s="27">
+        <v>10</v>
+      </c>
+      <c r="I5" s="17">
+        <v>20</v>
+      </c>
+      <c r="J5" s="17">
+        <v>10</v>
+      </c>
+      <c r="K5" s="17">
+        <v>20</v>
       </c>
       <c r="L5" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
       <c r="S5" s="10"/>
@@ -1171,45 +1177,45 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
+      <c r="E6" s="27">
+        <v>10</v>
+      </c>
+      <c r="F6" s="27">
+        <v>10</v>
+      </c>
+      <c r="G6" s="27">
+        <v>20</v>
+      </c>
+      <c r="H6" s="27">
+        <v>10</v>
+      </c>
+      <c r="I6" s="17">
+        <v>20</v>
+      </c>
+      <c r="J6" s="17">
+        <v>10</v>
+      </c>
+      <c r="K6" s="17">
+        <v>20</v>
       </c>
       <c r="L6" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="9"/>
       <c r="S6" s="7"/>
@@ -1218,45 +1224,45 @@
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="27">
         <v>0</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="27">
         <v>0</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="27">
         <v>0</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="27">
         <v>0</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="17">
         <v>0</v>
       </c>
       <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
@@ -1265,45 +1271,45 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0</v>
+      <c r="E8" s="27">
+        <v>10</v>
+      </c>
+      <c r="F8" s="27">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27">
+        <v>20</v>
+      </c>
+      <c r="H8" s="27">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17">
+        <v>20</v>
+      </c>
+      <c r="J8" s="17">
+        <v>10</v>
+      </c>
+      <c r="K8" s="17">
+        <v>20</v>
       </c>
       <c r="L8" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="10"/>
@@ -1312,45 +1318,45 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0</v>
+      <c r="E9" s="27">
+        <v>10</v>
+      </c>
+      <c r="F9" s="27">
+        <v>10</v>
+      </c>
+      <c r="G9" s="27">
+        <v>20</v>
+      </c>
+      <c r="H9" s="27">
+        <v>10</v>
+      </c>
+      <c r="I9" s="17">
+        <v>20</v>
+      </c>
+      <c r="J9" s="17">
+        <v>10</v>
+      </c>
+      <c r="K9" s="17">
+        <v>20</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="9"/>
       <c r="S9" s="10"/>
@@ -1359,45 +1365,45 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0</v>
+      <c r="E10" s="27">
+        <v>10</v>
+      </c>
+      <c r="F10" s="27">
+        <v>10</v>
+      </c>
+      <c r="G10" s="27">
+        <v>20</v>
+      </c>
+      <c r="H10" s="27">
+        <v>10</v>
+      </c>
+      <c r="I10" s="17">
+        <v>10</v>
+      </c>
+      <c r="J10" s="17">
+        <v>10</v>
+      </c>
+      <c r="K10" s="17">
+        <v>20</v>
       </c>
       <c r="L10" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="9"/>
       <c r="S10" s="10"/>
@@ -1406,45 +1412,45 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
+      <c r="E11" s="27">
+        <v>10</v>
+      </c>
+      <c r="F11" s="27">
+        <v>10</v>
+      </c>
+      <c r="G11" s="27">
+        <v>20</v>
+      </c>
+      <c r="H11" s="27">
+        <v>10</v>
+      </c>
+      <c r="I11" s="17">
+        <v>20</v>
+      </c>
+      <c r="J11" s="17">
+        <v>10</v>
+      </c>
+      <c r="K11" s="17">
+        <v>20</v>
       </c>
       <c r="L11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="10"/>
@@ -1453,45 +1459,45 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A12" s="19">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="27">
+        <v>10</v>
+      </c>
+      <c r="F12" s="27">
+        <v>10</v>
+      </c>
+      <c r="G12" s="27">
+        <v>20</v>
+      </c>
+      <c r="H12" s="27">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
+      <c r="I12" s="17">
+        <v>20</v>
+      </c>
+      <c r="J12" s="17">
+        <v>10</v>
+      </c>
+      <c r="K12" s="17">
+        <v>20</v>
       </c>
       <c r="L12" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="9"/>
       <c r="S12" s="10"/>
@@ -1500,45 +1506,45 @@
       <c r="V12" s="8"/>
     </row>
     <row r="13" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
+      <c r="E13" s="27">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27">
+        <v>5</v>
+      </c>
+      <c r="G13" s="27">
+        <v>10</v>
+      </c>
+      <c r="H13" s="27">
+        <v>10</v>
+      </c>
+      <c r="I13" s="17">
+        <v>20</v>
+      </c>
+      <c r="J13" s="17">
+        <v>10</v>
+      </c>
+      <c r="K13" s="17">
+        <v>20</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="9"/>
       <c r="S13" s="10"/>
@@ -1547,45 +1553,45 @@
       <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0</v>
+      <c r="E14" s="27">
+        <v>10</v>
+      </c>
+      <c r="F14" s="27">
+        <v>10</v>
+      </c>
+      <c r="G14" s="27">
+        <v>20</v>
+      </c>
+      <c r="H14" s="27">
+        <v>10</v>
+      </c>
+      <c r="I14" s="17">
+        <v>20</v>
+      </c>
+      <c r="J14" s="17">
+        <v>10</v>
+      </c>
+      <c r="K14" s="17">
+        <v>20</v>
       </c>
       <c r="L14" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
       <c r="S14" s="10"/>
@@ -1594,45 +1600,45 @@
       <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="27">
+        <v>10</v>
+      </c>
+      <c r="F15" s="27">
+        <v>10</v>
+      </c>
+      <c r="G15" s="27">
+        <v>20</v>
+      </c>
+      <c r="H15" s="27">
+        <v>10</v>
+      </c>
+      <c r="I15" s="17">
+        <v>20</v>
+      </c>
+      <c r="J15" s="17">
         <v>0</v>
       </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
-        <v>0</v>
+      <c r="K15" s="17">
+        <v>20</v>
       </c>
       <c r="L15" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
@@ -1641,45 +1647,45 @@
       <c r="V15" s="8"/>
     </row>
     <row r="16" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0</v>
-      </c>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
-        <v>0</v>
-      </c>
-      <c r="K16" s="18">
-        <v>0</v>
+      <c r="E16" s="27">
+        <v>10</v>
+      </c>
+      <c r="F16" s="27">
+        <v>10</v>
+      </c>
+      <c r="G16" s="27">
+        <v>10</v>
+      </c>
+      <c r="H16" s="27">
+        <v>10</v>
+      </c>
+      <c r="I16" s="17">
+        <v>20</v>
+      </c>
+      <c r="J16" s="17">
+        <v>10</v>
+      </c>
+      <c r="K16" s="17">
+        <v>20</v>
       </c>
       <c r="L16" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="9"/>
       <c r="S16" s="10"/>
@@ -1688,45 +1694,45 @@
       <c r="V16" s="8"/>
     </row>
     <row r="17" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18">
-        <v>0</v>
-      </c>
-      <c r="K17" s="18">
-        <v>0</v>
+      <c r="E17" s="27">
+        <v>10</v>
+      </c>
+      <c r="F17" s="27">
+        <v>10</v>
+      </c>
+      <c r="G17" s="27">
+        <v>20</v>
+      </c>
+      <c r="H17" s="27">
+        <v>5</v>
+      </c>
+      <c r="I17" s="17">
+        <v>20</v>
+      </c>
+      <c r="J17" s="17">
+        <v>10</v>
+      </c>
+      <c r="K17" s="17">
+        <v>20</v>
       </c>
       <c r="L17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="9"/>
       <c r="S17" s="10"/>
@@ -1735,45 +1741,45 @@
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18">
-        <v>0</v>
-      </c>
-      <c r="K18" s="18">
-        <v>0</v>
+      <c r="E18" s="27">
+        <v>10</v>
+      </c>
+      <c r="F18" s="27">
+        <v>10</v>
+      </c>
+      <c r="G18" s="27">
+        <v>20</v>
+      </c>
+      <c r="H18" s="27">
+        <v>10</v>
+      </c>
+      <c r="I18" s="17">
+        <v>10</v>
+      </c>
+      <c r="J18" s="17">
+        <v>10</v>
+      </c>
+      <c r="K18" s="17">
+        <v>20</v>
       </c>
       <c r="L18" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="9"/>
       <c r="S18" s="10"/>
@@ -1782,45 +1788,45 @@
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="18">
-        <v>0</v>
-      </c>
-      <c r="K19" s="18">
-        <v>0</v>
+      <c r="E19" s="27">
+        <v>10</v>
+      </c>
+      <c r="F19" s="27">
+        <v>10</v>
+      </c>
+      <c r="G19" s="27">
+        <v>20</v>
+      </c>
+      <c r="H19" s="27">
+        <v>10</v>
+      </c>
+      <c r="I19" s="17">
+        <v>20</v>
+      </c>
+      <c r="J19" s="17">
+        <v>10</v>
+      </c>
+      <c r="K19" s="17">
+        <v>20</v>
       </c>
       <c r="L19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="9"/>
       <c r="S19" s="10"/>
@@ -1829,45 +1835,45 @@
       <c r="V19" s="8"/>
     </row>
     <row r="20" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0</v>
-      </c>
-      <c r="K20" s="18">
-        <v>0</v>
+      <c r="E20" s="27">
+        <v>10</v>
+      </c>
+      <c r="F20" s="27">
+        <v>10</v>
+      </c>
+      <c r="G20" s="27">
+        <v>20</v>
+      </c>
+      <c r="H20" s="27">
+        <v>10</v>
+      </c>
+      <c r="I20" s="17">
+        <v>20</v>
+      </c>
+      <c r="J20" s="17">
+        <v>10</v>
+      </c>
+      <c r="K20" s="17">
+        <v>20</v>
       </c>
       <c r="L20" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="10"/>
@@ -1876,45 +1882,45 @@
       <c r="V20" s="8"/>
     </row>
     <row r="21" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18">
-        <v>0</v>
-      </c>
-      <c r="J21" s="18">
-        <v>0</v>
-      </c>
-      <c r="K21" s="18">
-        <v>0</v>
+      <c r="E21" s="27">
+        <v>10</v>
+      </c>
+      <c r="F21" s="27">
+        <v>10</v>
+      </c>
+      <c r="G21" s="27">
+        <v>20</v>
+      </c>
+      <c r="H21" s="27">
+        <v>10</v>
+      </c>
+      <c r="I21" s="17">
+        <v>20</v>
+      </c>
+      <c r="J21" s="17">
+        <v>10</v>
+      </c>
+      <c r="K21" s="17">
+        <v>20</v>
       </c>
       <c r="L21" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="10"/>
@@ -1923,45 +1929,45 @@
       <c r="V21" s="8"/>
     </row>
     <row r="22" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A22" s="19">
-        <v>20</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
-      <c r="J22" s="18">
-        <v>0</v>
-      </c>
-      <c r="K22" s="18">
-        <v>0</v>
+      <c r="E22" s="27">
+        <v>10</v>
+      </c>
+      <c r="F22" s="27">
+        <v>10</v>
+      </c>
+      <c r="G22" s="27">
+        <v>20</v>
+      </c>
+      <c r="H22" s="27">
+        <v>10</v>
+      </c>
+      <c r="I22" s="17">
+        <v>20</v>
+      </c>
+      <c r="J22" s="17">
+        <v>10</v>
+      </c>
+      <c r="K22" s="17">
+        <v>20</v>
       </c>
       <c r="L22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="10"/>
@@ -1970,45 +1976,45 @@
       <c r="V22" s="8"/>
     </row>
     <row r="23" spans="1:22" s="2" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0</v>
-      </c>
-      <c r="K23" s="18">
-        <v>0</v>
+      <c r="E23" s="27">
+        <v>10</v>
+      </c>
+      <c r="F23" s="27">
+        <v>10</v>
+      </c>
+      <c r="G23" s="27">
+        <v>20</v>
+      </c>
+      <c r="H23" s="27">
+        <v>10</v>
+      </c>
+      <c r="I23" s="17">
+        <v>20</v>
+      </c>
+      <c r="J23" s="17">
+        <v>10</v>
+      </c>
+      <c r="K23" s="17">
+        <v>20</v>
       </c>
       <c r="L23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="10"/>
@@ -2017,46 +2023,46 @@
       <c r="V23" s="8"/>
     </row>
     <row r="24" spans="1:22" ht="16.05" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="26">
-        <f>AVERAGE(E3:E23)*E2</f>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="F24" s="26">
-        <f t="shared" ref="F24:J24" si="1">AVERAGE(F3:F23)*F2</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
+      <c r="E24" s="25">
+        <f>AVERAGE(E3:E23)</f>
+        <v>8.8095238095238102</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" ref="F24:K24" si="1">AVERAGE(F3:F23)</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="G24" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="H24" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="26">
+        <v>8.0952380952380949</v>
+      </c>
+      <c r="I24" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="26">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="J24" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="26">
-        <f t="shared" ref="K24" si="2">AVERAGE(K3:K23)*K2</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="26">
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" si="1"/>
+        <v>18.095238095238095</v>
+      </c>
+      <c r="L24" s="25">
         <f>AVERAGE(L3:L23)</f>
-        <v>0.23809523809523808</v>
-      </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
+        <v>86.428571428571431</v>
+      </c>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="9"/>
       <c r="S24" s="10"/>
@@ -2136,10 +2142,30 @@
 Fall Semester, 2023
 General Grading Report</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="E24:K24" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100B542E048DCEC914CB381455F65170921" ma:contentTypeVersion="17" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="a9fe78b0e763ba360e927b7ffbaa4d7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3317c420-d316-4435-8241-33b98cfe393f" xmlns:ns4="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f3198fc71856a272a1be625b81b45a" ns3:_="" ns4:_="">
     <xsd:import namespace="3317c420-d316-4435-8241-33b98cfe393f"/>
@@ -2386,25 +2412,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2416,7 +2425,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E640310-4364-41D6-9671-4FC3C3618F46}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>